--- a/docs/2관계 정의서.xlsx
+++ b/docs/2관계 정의서.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
   <si>
     <t>엔티티타입명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>물품종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>재고</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -233,22 +229,6 @@
   </si>
   <si>
     <t>선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; 필요상품?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 필요상품은 한 업체에 의해 발송된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>적어도 유사어에 추가할 것</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전산주문도 추가.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -478,71 +458,270 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>지점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 지점은 여러 개의 재고를 가지고 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 재고는 한 지점에 속한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실의 종류는???</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도난 손실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손 손실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수 손실(직원의 실수로 거스름 돈을 더 많이줌)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 손실(직원 실수로 재고가 안맞음)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 속성이 많아서 한 테이블에 손실 종류 컬럼을 추가 및 모든 속성 넣고 널값 허용으로 한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 물품은 한 업체에서 공급한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택..?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품을 공급하지 않는 업체 정보도 유지하고 있을 건가?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 반품은 한 지점에서 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 지점에서 여러 번 반품이 발생할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미식별 요구사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>복합결제(현금결제+신용카드) 같이 결제했을 때… 영수증에 결제액이 찍힌다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매와 반품의 관계를 어떻게 할 것인지? 아예 반품 엔티티를 없애는 것도 고려.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐기를 반품사유의 한 종류로 볼 것인가?(폐기는 업무기술서 반품관리에 있음)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>발송과 물품, 지점, 발주, 입고의 연관관계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">물품종류, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금+교통카드 복합결제</t>
+  </si>
+  <si>
+    <t>현금+포인트 복합결제</t>
+  </si>
+  <si>
+    <t>현금+상품권 복합결제</t>
+  </si>
+  <si>
+    <t>현금+POP카드 복합결제</t>
+  </si>
+  <si>
+    <t>신용+교통카드 복합결제</t>
+  </si>
+  <si>
+    <t>신용+포인트 복합결제</t>
+  </si>
+  <si>
+    <t>신용+싱품권 복합결제</t>
+  </si>
+  <si>
+    <t>신용+POP카드 복합결제</t>
+  </si>
+  <si>
+    <t>교통커드+포인트 복합결제</t>
+  </si>
+  <si>
+    <t>교통카드+상품권 복합결제</t>
+  </si>
+  <si>
+    <t>교통카드+POP카드 복합결제</t>
+  </si>
+  <si>
+    <t>포인트+상품권 복합결제</t>
+  </si>
+  <si>
+    <t>포인트+POP카드 복합결제</t>
+  </si>
+  <si>
+    <t>상품권+POP카드 복합결제  등등....</t>
+  </si>
+  <si>
+    <t>신용(체크)카드는 실물카드/앱카드/삼성,LG페이 가 있고</t>
+  </si>
+  <si>
+    <t>교통카드는 실물카드(T머니.캐시비.마이비)/모바일교통카드 가 있고</t>
+  </si>
+  <si>
+    <t>상품권에는 종이상품권/모바일 상품권 이 있으며</t>
+  </si>
+  <si>
+    <t>POP카드는 멤버십POP/모바일POP 가 있고</t>
+  </si>
+  <si>
+    <t>포인트에는 GS포인트/삼성U포인트/에코머니포인트/신용카드포인트 가 있다.</t>
+  </si>
+  <si>
+    <t>직원의 급여를 계산하려면 직원의 출근 및 근무 시간을 기록하는 테이블이 필요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 유통기한 자동으로 관리해주는 전산상 처리가 있는가? 이거 에타같은데 물어보던가 하기.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 어떻게 할건지? 이벤트 테이블을 따로 만들건지, 물품에 이벤트 컬럼을 추가할건지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원에 지점번호를 키로 올려도 되고 내려도 된다. 발주에 지점번호도 마찬가지. 이렇게 키를 하나를 써도 되고, 복합키로 해도 되는 경우 어떻게? 근거는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>발송은 하나의 발주에 대해서 업체 하나가 발주에 들어있는 모든 물품을 다 확보해서 한 번 발송하는 것으로 정의한다. (상품1 3개보내고 상품2는 안보내고 이런거 안됨.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 업체는 여러 물품을 공급할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 지점에서 여러 번의 손실이 발생할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 손실은 한 지점에서 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>필수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>지점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각각의 지점은 여러 개의 재고를 가지고 있다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 재고는 한 지점에 속한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>손실의 종류는???</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도난 손실</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파손 손실</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수 손실(직원의 실수로 거스름 돈을 더 많이줌)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고 손실(직원 실수로 재고가 안맞음)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>손실액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
+    <t>직원에 지점번호를 키로 올린 이유? 식별관계여야 급여테이블의 키에 지점번호(FK)가 들어간다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 돼야 어떤 지점에서 발생한 모든 급여를 조회할 때 직원 테이블의 조인없이 조회가 가능함.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">급여번호를 키로 해도 되고, 지급일을 키로 올려서 (지급일+직원번호+지점번호)를 키로 하는 방법도 있음. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여번호를 없애야할까?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매와 반품의 연관관계. 판매(=영수증)이니까.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -550,7 +729,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>공통 속성이 많아서 한 테이블에 손실 종류 컬럼을 추가 및 모든 속성 넣고 널값 허용으로 한다.</t>
+    <t>출퇴근</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 직원은 여러 번 출퇴근 할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 출퇴근은 한 직원에 의해 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 판매는 한 번 반품될 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 반품은 한 판매에 대응된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 1:1이니까 반품을 판매에 넣는다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매의 구매취소여부는, 없어도 가능은 하지만 매번 영수증을 찍을 때 마다 구매취소 테이블을 조인해야 하기 때문에 효율을 위해 추가.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매취소에 고객번호(FK)들어가는 것 굳이 고객이랑 연결 안해도 판매랑 조인하면 알 수 있음. 이거 해결해야하나?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,8 +852,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu Condensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,8 +908,24 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -676,8 +933,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,8 +971,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,13 +1009,33 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
+    <cellStyle name="강조색1" xfId="8" builtinId="29"/>
     <cellStyle name="강조색5" xfId="6" builtinId="45"/>
     <cellStyle name="나쁨" xfId="4" builtinId="27"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="보통 2" xfId="5"/>
     <cellStyle name="설명 텍스트" xfId="2" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="7" builtinId="23"/>
     <cellStyle name="좋음" xfId="3" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1051,21 +1349,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="25.1328125" customWidth="1"/>
-    <col min="2" max="2" width="32.3984375" customWidth="1"/>
+    <col min="2" max="2" width="56.86328125" customWidth="1"/>
     <col min="3" max="3" width="29.265625" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="5" width="44.86328125" customWidth="1"/>
-    <col min="7" max="7" width="22.86328125" customWidth="1"/>
+    <col min="4" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="44.86328125" customWidth="1"/>
+    <col min="8" max="8" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,20 +1375,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1098,31 +1398,31 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1132,17 +1432,15 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
       <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1152,23 +1450,20 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1178,17 +1473,14 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1198,23 +1490,20 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1222,16 +1511,16 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1239,576 +1528,829 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="E25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="E27" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="C37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="50" spans="1:8">
+      <c r="C50" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="H50" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="F51" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.45" thickBot="1">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.899999999999999" thickTop="1" thickBot="1">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" ht="18.45" thickTop="1">
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" t="s">
         <v>121</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" t="s">
         <v>125</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="F61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" t="s">
         <v>102</v>
       </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E44" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E47" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D49" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E51" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E54" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" t="s">
-        <v>105</v>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="E68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" t="s">
+        <v>162</v>
+      </c>
+      <c r="G68" t="s">
+        <v>163</v>
+      </c>
+      <c r="H68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="F69" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" t="s">
+        <v>173</v>
+      </c>
+      <c r="G71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="F72" t="s">
+        <v>175</v>
+      </c>
+      <c r="G72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="F75" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/docs/2관계 정의서.xlsx
+++ b/docs/2관계 정의서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\UoS\PDF_강의노트-UoS\4-1\데이터베이스설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wngh1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB12210C-313D-4CCE-8CA0-BF02AFBCD286}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="206">
   <si>
     <t>엔티티타입명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -141,14 +136,6 @@
   </si>
   <si>
     <t>각 지점의 판매 이력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>반품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점에서 발생한 반품 이력</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -266,14 +253,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>각각의 고객은 여러 번 반품 요청할 수 있다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각각의 반품은 한 고객에 의해 요청된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>각각의 직원은 여러 번 손실을 발생시킬 수 있다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -318,10 +297,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>주문 반품 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>각 물품은 여러 번 폐기될 수 있다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -374,14 +349,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>각 물품은 여러 번 반품될 수 있다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 반품은 여러 개의 물품으로 이루어진다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>각 폐기는 여러 개의 제품으로 이루어져 있다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -546,31 +513,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>반품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각각의 반품은 한 지점에서 발생한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지점에서 여러 번 반품이 발생할 수 있다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>미식별 요구사항</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>복합결제(현금결제+신용카드) 같이 결제했을 때… 영수증에 결제액이 찍힌다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매와 반품의 관계를 어떻게 할 것인지? 아예 반품 엔티티를 없애는 것도 고려.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐기를 반품사유의 한 종류로 볼 것인가?(폐기는 업무기술서 반품관리에 있음)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -721,10 +668,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>판매와 반품의 연관관계. 판매(=영수증)이니까.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>직원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -749,34 +692,163 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>판매의 구매취소여부는, 없어도 가능은 하지만 매번 영수증을 찍을 때 마다 구매취소 테이블을 조인해야 하기 때문에 효율을 위해 추가.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매취소에 고객번호(FK)들어가는 것 굳이 고객이랑 연결 안해도 판매랑 조인하면 알 수 있음. 이거 해결해야하나?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 고객은 여러 번 구매취소 요청할 수 있다.</t>
+  </si>
+  <si>
+    <t>구매취소</t>
+  </si>
+  <si>
+    <t>각각의 구매취소는 한 고객에 의해 요청된다.</t>
+  </si>
+  <si>
+    <t>지점에서 발생한 구매취소 이력</t>
+  </si>
+  <si>
+    <t>주문 구매취소 관리</t>
+  </si>
+  <si>
+    <t>각 물품은 여러 번 구매취소될 수 있다.</t>
+  </si>
+  <si>
+    <t>각 구매취소는 여러 개의 물품으로 이루어진다.</t>
+  </si>
+  <si>
+    <t>판매와 구매취소의 관계를 어떻게 할 것인지? 아예 구매취소 엔티티를 없애는 것도 고려.</t>
+  </si>
+  <si>
+    <t>폐기를 구매취소사유의 한 종류로 볼 것인가?(폐기는 업무기술서 구매취소관리에 있음)</t>
+  </si>
+  <si>
+    <t>각각의 구매취소는 한 지점에서 발생한다.</t>
+  </si>
+  <si>
+    <t>각 지점에서 여러 번 구매취소가 발생할 수 있다.</t>
+  </si>
+  <si>
+    <t>판매와 구매취소의 연관관계. 판매(=영수증)이니까.</t>
+  </si>
+  <si>
+    <t>각각의 판매는 한 번 구매취소될 수 있다.</t>
+  </si>
+  <si>
+    <t>각 구매취소는 한 판매에 대응된다.</t>
+  </si>
+  <si>
+    <t>&gt; 1:1이니까 구매취소를 판매에 넣는다.</t>
+  </si>
+  <si>
     <t>반품</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>각각의 판매는 한 번 반품될 수 있다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 반품은 한 판매에 대응된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt; 1:1이니까 반품을 판매에 넣는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매의 구매취소여부는, 없어도 가능은 하지만 매번 영수증을 찍을 때 마다 구매취소 테이블을 조인해야 하기 때문에 효율을 위해 추가.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매취소에 고객번호(FK)들어가는 것 굳이 고객이랑 연결 안해도 판매랑 조인하면 알 수 있음. 이거 해결해야하나?</t>
+    <t>선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 입고는 한번만 반품될 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 반품은 하나의 입고에 대응된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 물품은 여러 번 반품될 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 반품은 여러 물품을 포함한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 판매는 여러 번 결제 될 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 결제는 하나의 판매와 연관된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원손실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 직원은 여러 번의 직원손실을 발생 시킬 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 직원 손실은 하나의 직원에 의해 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고손실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 직원은 여러 번의 재고손실을 발생 시킬 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 재고손실은 하나의 직원에 의해 발생한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도난손실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 재고는 여러 번 재고손실이 발생 할 수 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 재고 손실은 하나의 재고와 대응된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 재고는 여러 번 도난 손실이 발생 될 수 있다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -1033,7 +1105,7 @@
     <cellStyle name="강조색5" xfId="6" builtinId="45"/>
     <cellStyle name="나쁨" xfId="4" builtinId="27"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
-    <cellStyle name="보통 2" xfId="5"/>
+    <cellStyle name="보통 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="설명 텍스트" xfId="2" builtinId="53"/>
     <cellStyle name="셀 확인" xfId="7" builtinId="23"/>
     <cellStyle name="좋음" xfId="3" builtinId="26"/>
@@ -1348,21 +1420,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="D71" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="25.1328125" customWidth="1"/>
-    <col min="2" max="2" width="56.86328125" customWidth="1"/>
-    <col min="3" max="3" width="29.265625" customWidth="1"/>
-    <col min="4" max="5" width="15.59765625" customWidth="1"/>
-    <col min="6" max="6" width="44.86328125" customWidth="1"/>
-    <col min="8" max="8" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1376,16 +1448,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1399,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1410,13 +1482,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -1433,10 +1505,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -1454,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1474,10 +1546,10 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1494,13 +1566,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1511,13 +1583,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1528,22 +1600,22 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1554,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1574,10 +1646,10 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -1585,36 +1657,36 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>26</v>
@@ -1622,51 +1694,51 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>17</v>
@@ -1674,124 +1746,124 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1799,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1813,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1824,74 +1896,75 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B30" s="11"/>
       <c r="E30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>129</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="C32" s="12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>130</v>
+      <c r="A33" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="15" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>17</v>
@@ -1899,33 +1972,33 @@
     </row>
     <row r="35" spans="1:8">
       <c r="C35" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1933,42 +2006,42 @@
     </row>
     <row r="37" spans="1:8">
       <c r="C37" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>6</v>
@@ -1976,74 +2049,74 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="C42" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
@@ -2051,45 +2124,45 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
@@ -2097,249 +2170,251 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="C50" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C51" s="14"/>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="E53" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H53" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>154</v>
-      </c>
+      <c r="A54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.45" thickBot="1">
-      <c r="A55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18.899999999999999" thickTop="1" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" thickTop="1" thickBot="1">
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="18.45" thickTop="1">
+    <row r="57" spans="1:8" ht="18" thickTop="1">
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>115</v>
       </c>
-      <c r="F57" t="s">
-        <v>122</v>
-      </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>156</v>
+      <c r="A58" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="F58" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H58" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>166</v>
+      <c r="A59" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" t="s">
         <v>167</v>
       </c>
-      <c r="E60" t="s">
-        <v>125</v>
-      </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="G60" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="F61" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>168</v>
+      <c r="A62" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>169</v>
+      <c r="A63" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="E64" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>181</v>
+      <c r="A66" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>182</v>
+      <c r="A67" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="E68" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G68" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H68" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="F69" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G69" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="E71" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G71" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H71" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="F72" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="E74" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F74" t="s">
         <v>178</v>
       </c>
       <c r="G74" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H74" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2347,10 +2422,153 @@
         <v>179</v>
       </c>
       <c r="G75" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H75" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="E76" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" t="s">
+        <v>182</v>
+      </c>
+      <c r="H76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="F77" t="s">
+        <v>186</v>
+      </c>
+      <c r="G77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="E78" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="F79" t="s">
+        <v>189</v>
+      </c>
+      <c r="G79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="E80" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" t="s">
+        <v>183</v>
+      </c>
+      <c r="H80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8">
+      <c r="F81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8">
+      <c r="E82" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8">
+      <c r="F83" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8">
+      <c r="E84" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" t="s">
+        <v>182</v>
+      </c>
+      <c r="H84" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8">
+      <c r="F85" t="s">
+        <v>201</v>
+      </c>
+      <c r="G85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8">
+      <c r="E86" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" t="s">
+        <v>182</v>
+      </c>
+      <c r="H86" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8">
+      <c r="F87" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8">
+      <c r="E88" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H88" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
